--- a/Deutschland/Bundesliga/Ligenhistorie.xlsx
+++ b/Deutschland/Bundesliga/Ligenhistorie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Desktop\footballstats\footballstats\Deutschland\Bundesliga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F773C422-CDD6-4C59-A02C-7997D687FAB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB3D601-6799-451C-A5B3-7C8DA621E34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="1800" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,10 +822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
